--- a/Progress Report - team specific.xlsx
+++ b/Progress Report - team specific.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nenad\Documents\MScDS\Q5\Capstone\Drug-Target-Prediction-PDAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C40EB98-B750-4F7D-8CDC-45D2CBA17C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155D9E8D-2D73-47EF-9AC2-D503DA381FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2520" windowWidth="29040" windowHeight="15840" xr2:uid="{550B646A-9BE4-4071-977D-F7D3E939E4C3}"/>
   </bookViews>
@@ -446,14 +446,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -771,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A95FC2-5F77-41BD-8533-3EE194A6EDA2}">
   <dimension ref="B2:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,7 +785,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="34" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="2"/>
@@ -853,11 +853,11 @@
         <v>30</v>
       </c>
       <c r="P5" s="33"/>
-      <c r="Q5" s="34" t="s">
+      <c r="Q5" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="34"/>
-      <c r="S5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="36"/>
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="2:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -892,8 +892,8 @@
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="16"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
@@ -940,8 +940,8 @@
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
@@ -984,8 +984,8 @@
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
@@ -1051,8 +1051,8 @@
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
@@ -1074,8 +1074,8 @@
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="16"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
@@ -1097,8 +1097,8 @@
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="16"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
@@ -1141,8 +1141,8 @@
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="16"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
@@ -1185,8 +1185,8 @@
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="19"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
@@ -1208,8 +1208,8 @@
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="19"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
@@ -1231,8 +1231,8 @@
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="19"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
@@ -1254,8 +1254,8 @@
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="19"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
@@ -1277,8 +1277,8 @@
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
@@ -1300,8 +1300,8 @@
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="19"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
@@ -1323,8 +1323,8 @@
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="19"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
@@ -1367,8 +1367,8 @@
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="19"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
@@ -1390,8 +1390,8 @@
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="19"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
@@ -1413,8 +1413,8 @@
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="19"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
@@ -1436,8 +1436,8 @@
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="19"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
@@ -1459,8 +1459,8 @@
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="19"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
@@ -1482,8 +1482,8 @@
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="19"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
@@ -1505,8 +1505,8 @@
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="19"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>

--- a/Progress Report - team specific.xlsx
+++ b/Progress Report - team specific.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nenad\Documents\MScDS\Q5\Capstone\Drug-Target-Prediction-PDAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155D9E8D-2D73-47EF-9AC2-D503DA381FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C68D6CD-8126-4E9A-A882-7974E9FB50EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2520" windowWidth="29040" windowHeight="15840" xr2:uid="{550B646A-9BE4-4071-977D-F7D3E939E4C3}"/>
+    <workbookView xWindow="-28800" yWindow="2670" windowWidth="28800" windowHeight="15435" xr2:uid="{550B646A-9BE4-4071-977D-F7D3E939E4C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -772,7 +772,7 @@
   <dimension ref="B2:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,8 +894,8 @@
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
@@ -942,8 +942,8 @@
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
@@ -986,8 +986,8 @@
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
@@ -1053,8 +1053,8 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
@@ -1076,8 +1076,8 @@
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
@@ -1099,8 +1099,8 @@
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
@@ -1143,8 +1143,8 @@
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
@@ -1187,8 +1187,8 @@
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
@@ -1210,8 +1210,8 @@
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
@@ -1233,8 +1233,8 @@
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
@@ -1256,8 +1256,8 @@
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
@@ -1279,8 +1279,8 @@
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
@@ -1302,8 +1302,8 @@
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
@@ -1325,8 +1325,8 @@
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
@@ -1369,8 +1369,8 @@
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
@@ -1392,8 +1392,8 @@
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
@@ -1415,8 +1415,8 @@
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
@@ -1438,8 +1438,8 @@
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
@@ -1461,8 +1461,8 @@
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
       <c r="N32" s="14"/>
@@ -1484,8 +1484,8 @@
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
       <c r="N33" s="14"/>
@@ -1507,8 +1507,8 @@
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
       <c r="N34" s="14"/>
